--- a/service/demo_data/data_resource1.xlsx
+++ b/service/demo_data/data_resource1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthijs/Projecten/haplotypering/source/scripts/service/demo_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7AE1DB-3292-0647-8166-95CEBC6CF355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA2E276-7D29-1B41-8CC5-555C2329A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13720" yWindow="6100" windowWidth="16100" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13720" yWindow="6100" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>label</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Illumina Sequencing</t>
+  </si>
+  <si>
+    <t>accession</t>
   </si>
 </sst>
 </file>
@@ -182,9 +185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,9 +225,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,26 +260,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,26 +295,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,18 +510,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -560,48 +529,51 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -680,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
